--- a/dpm_test.xlsx
+++ b/dpm_test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tainh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8E23C3-6AB9-A540-9366-811256778A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EDABF-A89A-2C4F-A11F-DFB87D8AE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{688C4E4B-0FAB-8341-96E7-89B14D5F3E37}"/>
+    <workbookView xWindow="1760" yWindow="2180" windowWidth="27640" windowHeight="16940" xr2:uid="{688C4E4B-0FAB-8341-96E7-89B14D5F3E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>TẦM SOÁT CỔ PHIẾU</t>
   </si>
@@ -191,13 +191,7 @@
     <t>Thu nhập lãi thuần</t>
   </si>
   <si>
-    <t>Giá CP tại ngày 30/9:</t>
-  </si>
-  <si>
     <t>Lợi nhuận sau thuế công ty mẹ</t>
-  </si>
-  <si>
-    <t>Giá CP hiện tại:</t>
   </si>
   <si>
     <t>Biên lợi nhuận ròng</t>
@@ -215,31 +209,10 @@
     <t>P/E (Vietsock)</t>
   </si>
   <si>
-    <t>Doanh thu dự kiến 2022:</t>
-  </si>
-  <si>
     <t>Tốc độ tăng tưởng doanh thu</t>
   </si>
   <si>
-    <t>LNST dự kiến 2022:</t>
-  </si>
-  <si>
     <t>Tốc độ tăng tưởng LNST</t>
-  </si>
-  <si>
-    <t>Doanh thu 9T2021</t>
-  </si>
-  <si>
-    <t>P/E = 6</t>
-  </si>
-  <si>
-    <t>LNST 9T2021</t>
-  </si>
-  <si>
-    <t>P/E = 7</t>
-  </si>
-  <si>
-    <t>P/E = 8</t>
   </si>
   <si>
     <t xml:space="preserve">                                          Niên độ
@@ -327,6 +300,12 @@
   </si>
   <si>
     <t>Giá Khi Gas tăng</t>
+  </si>
+  <si>
+    <t>Số lượng CP lưu hành</t>
+  </si>
+  <si>
+    <t>Giá CP ngày 09/11/2022</t>
   </si>
 </sst>
 </file>
@@ -561,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1224,6 +1203,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1236,9 +1226,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1247,9 +1234,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1262,18 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,12 +1421,6 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1467,19 +1433,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,25 +1442,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,15 +1550,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,6 +1648,66 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1878,6 +1868,7 @@
       <sheetName val="PVP"/>
       <sheetName val="HDG"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="TAM SOAT1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4257,6 +4248,7 @@
           <cell r="G146" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H146"/>
         </row>
         <row r="147">
           <cell r="D147" t="str">
@@ -4594,6 +4586,7 @@
           <cell r="G166" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H166"/>
         </row>
         <row r="167">
           <cell r="D167" t="str">
@@ -4931,6 +4924,7 @@
           <cell r="G186" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H186"/>
         </row>
         <row r="187">
           <cell r="D187" t="str">
@@ -5268,6 +5262,7 @@
           <cell r="G206" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H206"/>
         </row>
         <row r="207">
           <cell r="D207" t="str">
@@ -5605,6 +5600,7 @@
           <cell r="G226" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H226"/>
         </row>
         <row r="227">
           <cell r="D227" t="str">
@@ -5942,6 +5938,7 @@
           <cell r="G246" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H246"/>
         </row>
         <row r="247">
           <cell r="D247" t="str">
@@ -6279,6 +6276,7 @@
           <cell r="G266" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H266"/>
         </row>
         <row r="267">
           <cell r="D267" t="str">
@@ -6616,6 +6614,7 @@
           <cell r="G286" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H286"/>
         </row>
         <row r="287">
           <cell r="D287" t="str">
@@ -6953,6 +6952,7 @@
           <cell r="G306" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H306"/>
         </row>
         <row r="307">
           <cell r="D307" t="str">
@@ -7290,6 +7290,7 @@
           <cell r="G326" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H326"/>
         </row>
         <row r="327">
           <cell r="D327" t="str">
@@ -7627,6 +7628,7 @@
           <cell r="G346" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H346"/>
         </row>
         <row r="347">
           <cell r="D347" t="str">
@@ -7964,6 +7966,7 @@
           <cell r="G366" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H366"/>
         </row>
         <row r="367">
           <cell r="D367" t="str">
@@ -8301,6 +8304,7 @@
           <cell r="G386" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H386"/>
         </row>
         <row r="387">
           <cell r="D387" t="str">
@@ -8638,6 +8642,7 @@
           <cell r="G406" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H406"/>
         </row>
         <row r="407">
           <cell r="D407" t="str">
@@ -8975,6 +8980,7 @@
           <cell r="G426" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H426"/>
         </row>
         <row r="427">
           <cell r="D427" t="str">
@@ -9312,6 +9318,7 @@
           <cell r="G446" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H446"/>
         </row>
         <row r="447">
           <cell r="D447" t="str">
@@ -9649,6 +9656,7 @@
           <cell r="G466" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H466"/>
         </row>
         <row r="467">
           <cell r="D467" t="str">
@@ -9986,6 +9994,7 @@
           <cell r="G486" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H486"/>
         </row>
         <row r="487">
           <cell r="D487" t="str">
@@ -10323,6 +10332,7 @@
           <cell r="G506" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H506"/>
         </row>
         <row r="507">
           <cell r="D507" t="str">
@@ -10660,6 +10670,7 @@
           <cell r="G526" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H526"/>
         </row>
         <row r="527">
           <cell r="D527" t="str">
@@ -10997,6 +11008,7 @@
           <cell r="G546" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H546"/>
         </row>
         <row r="547">
           <cell r="D547" t="str">
@@ -11334,6 +11346,7 @@
           <cell r="G566" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H566"/>
         </row>
         <row r="567">
           <cell r="D567" t="str">
@@ -11671,6 +11684,7 @@
           <cell r="G586" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H586"/>
         </row>
         <row r="587">
           <cell r="D587" t="str">
@@ -12008,6 +12022,7 @@
           <cell r="G606" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H606"/>
         </row>
         <row r="607">
           <cell r="D607" t="str">
@@ -12345,6 +12360,7 @@
           <cell r="G626" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H626"/>
         </row>
         <row r="627">
           <cell r="D627" t="str">
@@ -12682,6 +12698,7 @@
           <cell r="G646" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H646"/>
         </row>
         <row r="647">
           <cell r="D647" t="str">
@@ -13019,6 +13036,7 @@
           <cell r="G666" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H666"/>
         </row>
         <row r="667">
           <cell r="D667" t="str">
@@ -13356,6 +13374,7 @@
           <cell r="G686" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H686"/>
         </row>
         <row r="687">
           <cell r="D687" t="str">
@@ -15393,6 +15412,7 @@
           <cell r="G806" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H806"/>
         </row>
         <row r="807">
           <cell r="D807" t="str">
@@ -16240,6 +16260,7 @@
           <cell r="G856" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H856"/>
         </row>
         <row r="857">
           <cell r="D857" t="str">
@@ -17087,6 +17108,7 @@
           <cell r="G906" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H906"/>
         </row>
         <row r="907">
           <cell r="D907" t="str">
@@ -17934,6 +17956,7 @@
           <cell r="G956" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H956"/>
         </row>
         <row r="957">
           <cell r="D957" t="str">
@@ -18781,6 +18804,7 @@
           <cell r="G1006" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1006"/>
         </row>
         <row r="1007">
           <cell r="D1007" t="str">
@@ -19628,6 +19652,7 @@
           <cell r="G1056" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H1056"/>
         </row>
         <row r="1057">
           <cell r="D1057" t="str">
@@ -20475,6 +20500,7 @@
           <cell r="G1106" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H1106"/>
         </row>
         <row r="1107">
           <cell r="D1107" t="str">
@@ -21322,6 +21348,7 @@
           <cell r="G1156" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1156"/>
         </row>
         <row r="1157">
           <cell r="D1157" t="str">
@@ -22169,6 +22196,7 @@
           <cell r="G1206" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1206"/>
         </row>
         <row r="1207">
           <cell r="D1207" t="str">
@@ -23016,6 +23044,7 @@
           <cell r="G1256" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1256"/>
         </row>
         <row r="1257">
           <cell r="D1257" t="str">
@@ -23863,6 +23892,7 @@
           <cell r="G1306" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H1306"/>
         </row>
         <row r="1307">
           <cell r="D1307" t="str">
@@ -24710,6 +24740,7 @@
           <cell r="G1356" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1356"/>
         </row>
         <row r="1357">
           <cell r="D1357" t="str">
@@ -25557,6 +25588,7 @@
           <cell r="G1406" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1406"/>
         </row>
         <row r="1407">
           <cell r="D1407" t="str">
@@ -26404,6 +26436,7 @@
           <cell r="G1456" t="str">
             <v>HNX</v>
           </cell>
+          <cell r="H1456"/>
         </row>
         <row r="1457">
           <cell r="D1457" t="str">
@@ -27251,6 +27284,7 @@
           <cell r="G1506" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1506"/>
         </row>
         <row r="1507">
           <cell r="D1507" t="str">
@@ -28098,6 +28132,7 @@
           <cell r="G1556" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1556"/>
         </row>
         <row r="1557">
           <cell r="D1557" t="str">
@@ -28945,6 +28980,7 @@
           <cell r="G1606" t="str">
             <v>HOSE</v>
           </cell>
+          <cell r="H1606"/>
         </row>
         <row r="1607">
           <cell r="D1607" t="str">
@@ -29792,6 +29828,7 @@
           <cell r="G1656" t="str">
             <v>UPCoM</v>
           </cell>
+          <cell r="H1656"/>
         </row>
         <row r="1657">
           <cell r="D1657" t="str">
@@ -29909,6 +29946,7 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -30213,1163 +30251,1141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D270-9256-5445-A3D6-0368DC275F9F}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="38.5" style="3" customWidth="1"/>
-    <col min="3" max="6" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="38.5" style="2" customWidth="1"/>
+    <col min="3" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f ca="1">TODAY()</f>
-        <v>46044</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="8" t="str">
         <f>H2</f>
         <v>DPM</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="160" t="str">
         <f>VLOOKUP($B$4,[1]Sheet5!$D$7:$H$1661,4,0)</f>
         <v>HOSE</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="E4" s="162" t="str">
         <f>IF($J$5&gt;10%,"CỔ PHIẾU CÒN TIỀM NĂNG",IF($J$5&gt;7%,"CỔ PHIẾU ÍT HẤP DẪN+THEO DÕI THÊM","LỢI NHUẬN ĐÃ PHẢN ÁNH VÀO GIÁ+THEO DÕI THÊM"))</f>
         <v>LỢI NHUẬN ĐÃ PHẢN ÁNH VÀO GIÁ+THEO DÕI THÊM</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="10">
         <f>J39</f>
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="13" t="str">
         <f>VLOOKUP($B$4,[1]Sheet5!$D$7:$H$1661,2,0)</f>
         <v>Tổng Công ty Phân bón và Hóa chất Dầu khí - CTCP</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="20" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <f>J4/N9-1</f>
         <v>-1</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L6" s="22"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30" t="str">
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="str">
         <f>VLOOKUP($B$4,[1]Sheet5!$D$7:$H$1661,3,0)</f>
         <v>Sản xuất hóa chất, dược phẩm</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="26">
         <v>9297112</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="26">
         <v>7683541</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="26">
         <v>7761819</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="27">
         <f>SUM(G20:J20)</f>
         <v>12786141</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>18627180</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="28">
         <f>SUM(L20:O20)</f>
         <v>20375912.600000001</v>
       </c>
-      <c r="L8" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
+      <c r="L8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31">
+        <v>300000000</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="B9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="33">
         <v>699593</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="33">
         <v>377703</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="33">
         <v>691308</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="34">
         <f>SUM(G23:J23)</f>
         <v>3116763</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="35">
         <v>5586163</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="35">
         <f>SUM(L23:O23)</f>
         <v>5538336</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44">
+      <c r="L9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38">
         <v>51000</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="39">
         <f t="shared" ref="C10:H10" si="0">C9/C8</f>
         <v>7.5248421230162663E-2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <f t="shared" si="0"/>
         <v>4.9157413229134847E-2</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>8.9065204947448531E-2</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>0.24376103782994415</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="41">
         <f t="shared" si="0"/>
         <v>0.29989311318192019</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
         <v>0.27180799744890932</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49">
+      <c r="L10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43">
         <v>0.3</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="B11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="33">
         <v>1788</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="33">
         <v>965</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="33">
         <v>1767</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="44">
         <f>SUM(G26:J26)</f>
         <v>7964.4521795766104</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="45">
         <f>SUM(H26:K26)</f>
         <v>12930.28369149177</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="45">
         <f>SUM(I26:L26)</f>
         <v>14451.244314770704</v>
       </c>
-      <c r="L11" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54">
+      <c r="L11" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="48">
         <v>0.25</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="55">
+      <c r="B12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="49">
         <v>12.47</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="49">
         <v>13.42</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="49">
         <v>10.64</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="50">
         <v>6.28</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="51">
         <f>N9/G11*10^3</f>
         <v>3944.2290066348974</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="51">
         <f>O9/H11*10^3</f>
         <v>0</v>
       </c>
-      <c r="L12" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="54"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="63">
+    <row r="13" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="57">
         <v>0.16</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="57">
         <f t="shared" ref="D13:H14" si="1">(D8-C8)/ABS(C8)</f>
         <v>-0.17355615378194864</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="57">
         <f t="shared" si="1"/>
         <v>1.0187750673810421E-2</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="58">
         <f t="shared" si="1"/>
         <v>0.6473124405503401</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="57">
         <f>(G8-F8)/ABS(F8)</f>
         <v>0.45682579286432085</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="57">
         <f t="shared" si="1"/>
         <v>9.3880694769686093E-2</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="65"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="63">
+      <c r="B14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="57">
         <v>0.01</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="57">
         <f t="shared" si="1"/>
         <v>-0.46011037846290631</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="57">
         <f t="shared" si="1"/>
         <v>0.83029523196797483</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="58">
         <f t="shared" si="1"/>
         <v>3.5085012758423164</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="61">
         <f>(G9-F9)/ABS(F9)</f>
         <v>0.79229636645455559</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="61">
         <f t="shared" si="1"/>
         <v>-8.5616907347673167E-3</v>
       </c>
-      <c r="L14" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="40"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71">
-        <f>G11*6</f>
-        <v>77581.702148950615</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="76"/>
-      <c r="G16" s="71">
-        <f>G11*7</f>
-        <v>90511.985840442387</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="71">
-        <f>G11*8</f>
-        <v>103442.26953193416</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="L17" s="78"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="70"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="151">
         <v>2020</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83">
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="154">
         <v>2021</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="84">
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="155">
         <v>2022</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="85">
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="156">
         <v>2022</v>
       </c>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
     </row>
     <row r="19" spans="2:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="93" t="s">
-        <v>42</v>
+      <c r="B19" s="150"/>
+      <c r="C19" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="77">
         <v>1697289</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="77">
         <v>2178286</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="77">
         <v>1954930</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="77">
         <v>1930034</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="77">
         <v>1945020</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="77">
         <v>2930746</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="77">
         <v>2824024</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="77">
         <v>5086351</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="78">
         <v>5829112</v>
       </c>
-      <c r="L20" s="95">
+      <c r="L20" s="78">
         <v>5013280</v>
       </c>
-      <c r="M20" s="95">
+      <c r="M20" s="78">
         <v>3885094</v>
       </c>
-      <c r="N20" s="95">
+      <c r="N20" s="78">
         <v>3899693</v>
       </c>
-      <c r="O20" s="95">
+      <c r="O20" s="78">
         <f>K20+K20*$N$10</f>
         <v>7577845.5999999996</v>
       </c>
-      <c r="P20" s="95">
+      <c r="P20" s="78">
         <f t="shared" ref="P20:R20" si="2">L20+L20*$N$10</f>
         <v>6517264</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q20" s="78">
         <f t="shared" si="2"/>
         <v>5050622.2</v>
       </c>
-      <c r="R20" s="95">
+      <c r="R20" s="78">
         <f t="shared" si="2"/>
         <v>5069600.9000000004</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="97">
+      <c r="B21" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="80">
         <v>338781</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="80">
         <v>570326</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="80">
         <v>433172</v>
       </c>
-      <c r="F21" s="97">
+      <c r="F21" s="80">
         <v>387332</v>
       </c>
-      <c r="G21" s="97">
+      <c r="G21" s="80">
         <v>432589</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="80">
         <v>940299</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="80">
         <v>1040973</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="80">
         <v>2371678</v>
       </c>
-      <c r="K21" s="97">
+      <c r="K21" s="80">
         <v>2822638</v>
       </c>
-      <c r="L21" s="97">
+      <c r="L21" s="80">
         <v>1930127</v>
       </c>
-      <c r="M21" s="97">
+      <c r="M21" s="80">
         <v>1489270</v>
       </c>
-      <c r="N21" s="97">
+      <c r="N21" s="80">
         <v>1639267</v>
       </c>
-      <c r="O21" s="97">
+      <c r="O21" s="80">
         <v>2822638</v>
       </c>
-      <c r="P21" s="97">
+      <c r="P21" s="80">
         <v>1930127</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="98">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="81">
         <f>C21/C20</f>
         <v>0.19960124645832267</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="81">
         <f t="shared" ref="D22:K22" si="3">D21/D20</f>
         <v>0.26182328674930655</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="81">
         <f t="shared" si="3"/>
         <v>0.2215792892840153</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="81">
         <f t="shared" si="3"/>
         <v>0.20068662002845547</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="81">
         <f t="shared" si="3"/>
         <v>0.22240850993820116</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="81">
         <f t="shared" si="3"/>
         <v>0.32083947227088255</v>
       </c>
-      <c r="I22" s="98">
+      <c r="I22" s="81">
         <f t="shared" si="3"/>
         <v>0.36861336872491168</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J22" s="81">
         <f t="shared" si="3"/>
         <v>0.46628280274011763</v>
       </c>
-      <c r="K22" s="98">
+      <c r="K22" s="81">
         <f t="shared" si="3"/>
         <v>0.4842312173792509</v>
       </c>
-      <c r="L22" s="98">
+      <c r="L22" s="81">
         <f>L21/L20</f>
         <v>0.38500283247694123</v>
       </c>
-      <c r="M22" s="98">
+      <c r="M22" s="81">
         <f t="shared" ref="M22:R22" si="4">M21/M20</f>
         <v>0.38332920644905888</v>
       </c>
-      <c r="N22" s="98">
+      <c r="N22" s="81">
         <f>N21/N20</f>
         <v>0.4203579615113292</v>
       </c>
-      <c r="O22" s="98">
+      <c r="O22" s="81">
         <f t="shared" si="4"/>
         <v>0.372485551830193</v>
       </c>
-      <c r="P22" s="98">
+      <c r="P22" s="81">
         <f t="shared" si="4"/>
         <v>0.29615602498226251</v>
       </c>
-      <c r="Q22" s="98">
+      <c r="Q22" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="98">
+      <c r="R22" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="100">
+      <c r="B23" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="83">
         <v>104827</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="83">
         <v>302880</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="83">
         <v>182078</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="83">
         <v>103455</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G23" s="83">
         <v>170787</v>
       </c>
-      <c r="H23" s="100">
+      <c r="H23" s="83">
         <v>684291</v>
       </c>
-      <c r="I23" s="100">
+      <c r="I23" s="83">
         <v>618018</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="83">
         <v>1643667</v>
       </c>
-      <c r="K23" s="101">
+      <c r="K23" s="84">
         <v>2114087</v>
       </c>
-      <c r="L23" s="101">
+      <c r="L23" s="84">
         <v>1279495</v>
       </c>
-      <c r="M23" s="101">
+      <c r="M23" s="84">
         <v>997573</v>
       </c>
-      <c r="N23" s="102">
+      <c r="N23" s="85">
         <v>1147181</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="84">
         <v>2114087</v>
       </c>
-      <c r="P23" s="101">
+      <c r="P23" s="84">
         <v>1279495</v>
       </c>
-      <c r="Q23" s="101">
+      <c r="Q23" s="84">
         <f>Q20*Q25</f>
         <v>1262655.55</v>
       </c>
-      <c r="R23" s="102">
+      <c r="R23" s="85">
         <f>R20*R25</f>
         <v>1267400.2250000001</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="103">
+      <c r="B24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="86">
         <v>391334260</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="86">
         <v>391334260</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="86">
         <v>391334260</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="86">
         <v>391334260</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="86">
         <v>391334260</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="86">
         <v>391334260</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="86">
         <v>391334260</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="86">
         <v>391334260</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="86">
         <v>391334260</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="86">
         <v>391334260</v>
       </c>
-      <c r="M24" s="103">
+      <c r="M24" s="86">
         <v>391334260</v>
       </c>
-      <c r="N24" s="103">
+      <c r="N24" s="86">
         <v>391334260</v>
       </c>
-      <c r="O24" s="103">
+      <c r="O24" s="86">
         <v>391334260</v>
       </c>
-      <c r="P24" s="103">
+      <c r="P24" s="86">
         <v>391334260</v>
       </c>
-      <c r="Q24" s="103">
+      <c r="Q24" s="86">
         <v>391334260</v>
       </c>
-      <c r="R24" s="103">
+      <c r="R24" s="86">
         <v>391334260</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="105">
+    <row r="25" spans="2:18" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="88">
         <f t="shared" ref="C25:I25" si="5">C23/C20</f>
         <v>6.176143249617478E-2</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="88">
         <f t="shared" si="5"/>
         <v>0.13904510243374837</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="88">
         <f>E23/E20</f>
         <v>9.3137861713718656E-2</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="88">
         <f t="shared" si="5"/>
         <v>5.3602682647041454E-2</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="88">
         <f t="shared" si="5"/>
         <v>8.7807323318012151E-2</v>
       </c>
-      <c r="H25" s="105">
+      <c r="H25" s="88">
         <f t="shared" si="5"/>
         <v>0.23348696884683967</v>
       </c>
-      <c r="I25" s="105">
+      <c r="I25" s="88">
         <f t="shared" si="5"/>
         <v>0.21884304099398588</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="88">
         <f>J23/J20</f>
         <v>0.32315249183550249</v>
       </c>
-      <c r="K25" s="105">
+      <c r="K25" s="88">
         <f t="shared" ref="K25:M25" si="6">K23/K20</f>
         <v>0.36267736835387621</v>
       </c>
-      <c r="L25" s="105">
+      <c r="L25" s="88">
         <f t="shared" si="6"/>
         <v>0.25522113267162416</v>
       </c>
-      <c r="M25" s="105">
+      <c r="M25" s="88">
         <f t="shared" si="6"/>
         <v>0.25676933428122972</v>
       </c>
-      <c r="N25" s="105">
+      <c r="N25" s="88">
         <f>N23/N20</f>
         <v>0.29417213098569556</v>
       </c>
-      <c r="O25" s="105">
+      <c r="O25" s="88">
         <f t="shared" ref="O25:P25" si="7">O23/O20</f>
         <v>0.27898259104144324</v>
       </c>
-      <c r="P25" s="105">
+      <c r="P25" s="88">
         <f t="shared" si="7"/>
         <v>0.19632394820894167</v>
       </c>
-      <c r="Q25" s="106">
+      <c r="Q25" s="89">
         <f>$N$11</f>
         <v>0.25</v>
       </c>
-      <c r="R25" s="107">
+      <c r="R25" s="90">
         <f>$N$11</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="109">
+    <row r="26" spans="2:18" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="92">
         <f>C23/C24*10^6</f>
         <v>267.8707455871612</v>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="92">
         <f t="shared" ref="D26:N26" si="8">D23/D24*10^6</f>
         <v>773.96750287081943</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="92">
         <f t="shared" si="8"/>
         <v>465.27487779884132</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="92">
         <f t="shared" si="8"/>
         <v>264.36479136787057</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="92">
         <f t="shared" si="8"/>
         <v>436.42230557580109</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="92">
         <f t="shared" si="8"/>
         <v>1748.6099990325406</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="92">
         <f t="shared" si="8"/>
         <v>1579.2586112956224</v>
       </c>
-      <c r="J26" s="109">
+      <c r="J26" s="92">
         <f t="shared" si="8"/>
         <v>4200.1612636726459</v>
       </c>
-      <c r="K26" s="110">
+      <c r="K26" s="93">
         <f>K23/K24*10^6</f>
         <v>5402.2538174909605</v>
       </c>
-      <c r="L26" s="110">
+      <c r="L26" s="93">
         <f t="shared" si="8"/>
         <v>3269.5706223114735</v>
       </c>
-      <c r="M26" s="110">
+      <c r="M26" s="93">
         <f>M23/M24*10^6</f>
         <v>2549.1583588924723</v>
       </c>
-      <c r="N26" s="111">
+      <c r="N26" s="94">
         <f t="shared" si="8"/>
         <v>2931.4606904082461</v>
       </c>
-      <c r="O26" s="110">
+      <c r="O26" s="93">
         <f>O23/O24*10^6</f>
         <v>5402.2538174909605</v>
       </c>
-      <c r="P26" s="110">
+      <c r="P26" s="93">
         <f t="shared" ref="P26" si="9">P23/P24*10^6</f>
         <v>3269.5706223114735</v>
       </c>
-      <c r="Q26" s="110">
+      <c r="Q26" s="93">
         <f>Q23/Q24*10^6</f>
         <v>3226.5397616860841</v>
       </c>
-      <c r="R26" s="111">
+      <c r="R26" s="94">
         <f t="shared" ref="R26" si="10">R23/R24*10^6</f>
         <v>3238.6641154290965</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="112">
+    <row r="27" spans="2:18" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="95">
         <v>1093</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="95">
         <v>1795</v>
       </c>
-      <c r="E27" s="112">
+      <c r="E27" s="95">
         <v>2105</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F27" s="95">
         <f t="shared" ref="F27:I27" si="11">SUM(C26:F26)</f>
         <v>1771.4779176246925</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="95">
         <f t="shared" si="11"/>
         <v>1940.0294776133323</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="95">
         <f t="shared" si="11"/>
         <v>2914.6719737750536</v>
       </c>
-      <c r="I27" s="112">
+      <c r="I27" s="95">
         <f t="shared" si="11"/>
         <v>4028.6557072718347</v>
       </c>
-      <c r="J27" s="112">
+      <c r="J27" s="95">
         <v>7964</v>
       </c>
-      <c r="K27" s="113">
+      <c r="K27" s="96">
         <v>12930</v>
       </c>
-      <c r="L27" s="113">
+      <c r="L27" s="96">
         <v>14451</v>
       </c>
-      <c r="M27" s="113">
+      <c r="M27" s="96">
         <v>15421</v>
       </c>
-      <c r="N27" s="114">
+      <c r="N27" s="97">
         <v>14152</v>
       </c>
-      <c r="O27" s="113">
+      <c r="O27" s="96">
         <f>SUM(L26:O26)</f>
         <v>14152.443489103152</v>
       </c>
-      <c r="P27" s="113">
+      <c r="P27" s="96">
         <f t="shared" ref="P27:R27" si="12">SUM(M26:P26)</f>
         <v>14152.443489103152</v>
       </c>
-      <c r="Q27" s="113">
+      <c r="Q27" s="96">
         <f t="shared" si="12"/>
         <v>14829.824891896766</v>
       </c>
-      <c r="R27" s="113">
+      <c r="R27" s="96">
         <f t="shared" si="12"/>
         <v>15137.028316917615</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="115">
+      <c r="B28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="98">
         <v>10.48</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="98">
         <v>7.8</v>
       </c>
-      <c r="E28" s="115">
+      <c r="E28" s="98">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="98">
         <v>10.61</v>
       </c>
-      <c r="G28" s="115">
+      <c r="G28" s="98">
         <v>10.23</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="98">
         <v>8.17</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="99">
         <v>9.1300000000000008</v>
       </c>
-      <c r="J28" s="116">
+      <c r="J28" s="99">
         <v>6.28</v>
       </c>
-      <c r="K28" s="116">
+      <c r="K28" s="99">
         <v>5.17</v>
       </c>
-      <c r="L28" s="116">
+      <c r="L28" s="99">
         <v>3.53</v>
       </c>
-      <c r="M28" s="116">
+      <c r="M28" s="99">
         <v>3.04</v>
       </c>
-      <c r="N28" s="116">
+      <c r="N28" s="99">
         <v>3.03</v>
       </c>
-      <c r="O28" s="116">
+      <c r="O28" s="99">
         <f>$N$9/SUM(L26:O26)</f>
         <v>3.6036179928411709</v>
       </c>
-      <c r="P28" s="116">
+      <c r="P28" s="99">
         <f t="shared" ref="P28:R28" si="13">$N$9/SUM(M26:P26)</f>
         <v>3.6036179928411709</v>
       </c>
-      <c r="Q28" s="116">
+      <c r="Q28" s="99">
         <f>$N$9/SUM(N26:Q26)</f>
         <v>3.439015657417988</v>
       </c>
-      <c r="R28" s="116">
+      <c r="R28" s="99">
         <f t="shared" si="13"/>
         <v>3.3692214173240869</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118">
+      <c r="B29" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101">
         <f>(G20-C20)/ABS(C20)</f>
         <v>0.14595687593568332</v>
       </c>
-      <c r="H29" s="118">
+      <c r="H29" s="101">
         <f>(H20-D20)/ABS(D20)</f>
         <v>0.34543673328479363</v>
       </c>
-      <c r="I29" s="118">
+      <c r="I29" s="101">
         <f>(I20-E20)/ABS(E20)</f>
         <v>0.4445652785521732</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="101">
         <f t="shared" ref="J29:R29" si="14">(J20-F20)/ABS(F20)</f>
         <v>1.6353685997241498</v>
       </c>
-      <c r="K29" s="118">
+      <c r="K29" s="101">
         <f t="shared" si="14"/>
         <v>1.9969419337590359</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="101">
         <f t="shared" si="14"/>
         <v>0.71058153794289913</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="101">
         <f t="shared" si="14"/>
         <v>0.37572980966167424</v>
       </c>
-      <c r="N29" s="118">
+      <c r="N29" s="101">
         <f t="shared" si="14"/>
         <v>-0.23330242053684458</v>
       </c>
-      <c r="O29" s="118">
+      <c r="O29" s="101">
         <f t="shared" si="14"/>
         <v>0.29999999999999993</v>
       </c>
-      <c r="P29" s="118">
+      <c r="P29" s="101">
         <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
-      <c r="Q29" s="118">
+      <c r="Q29" s="101">
         <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="R29" s="118">
+      <c r="R29" s="101">
         <f t="shared" si="14"/>
         <v>0.3000000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B30" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123">
+      <c r="B30" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="106">
         <f>(G23-C23)/ABS(C23)</f>
         <v>0.62922720291527945</v>
       </c>
-      <c r="H30" s="123">
+      <c r="H30" s="106">
         <f t="shared" ref="H30:M30" si="15">(H23-D23)/ABS(D23)</f>
         <v>1.2592809033280508</v>
       </c>
-      <c r="I30" s="123">
+      <c r="I30" s="106">
         <f t="shared" si="15"/>
         <v>2.3942486187238434</v>
       </c>
-      <c r="J30" s="123">
+      <c r="J30" s="106">
         <f t="shared" si="15"/>
         <v>14.887748296360737</v>
       </c>
-      <c r="K30" s="123">
+      <c r="K30" s="106">
         <f t="shared" si="15"/>
         <v>11.378500705557215</v>
       </c>
-      <c r="L30" s="123">
+      <c r="L30" s="106">
         <f t="shared" si="15"/>
         <v>0.86981123527855841</v>
       </c>
-      <c r="M30" s="123">
+      <c r="M30" s="106">
         <f t="shared" si="15"/>
         <v>0.61414877883815677</v>
       </c>
-      <c r="N30" s="123">
+      <c r="N30" s="106">
         <f>(N23-J23)/ABS(J23)</f>
         <v>-0.30205996713446215</v>
       </c>
-      <c r="O30" s="123">
+      <c r="O30" s="106">
         <f t="shared" ref="O30:R30" si="16">(O23-K23)/ABS(K23)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="123">
+      <c r="P30" s="106">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="123">
+      <c r="Q30" s="106">
         <f t="shared" si="16"/>
         <v>0.26572747057107604</v>
       </c>
-      <c r="R30" s="123">
+      <c r="R30" s="106">
         <f t="shared" si="16"/>
         <v>0.10479534179872234</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="128"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -31378,14 +31394,14 @@
       <c r="N31"/>
     </row>
     <row r="32" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="70"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -31400,38 +31416,38 @@
       <c r="N33"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I35" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
+      <c r="I35" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="129"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
     </row>
     <row r="37" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37"/>
@@ -31439,32 +31455,32 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="P37" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="R37" s="133" t="s">
-        <v>54</v>
+      <c r="H37" s="147"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="113" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -31473,40 +31489,40 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" s="134">
+      <c r="H38" s="114">
         <v>9</v>
       </c>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="136">
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="116">
         <f t="shared" ref="K38:R38" si="17">$H$38*K27</f>
         <v>116370</v>
       </c>
-      <c r="L38" s="136">
+      <c r="L38" s="116">
         <f t="shared" si="17"/>
         <v>130059</v>
       </c>
-      <c r="M38" s="136">
+      <c r="M38" s="116">
         <f t="shared" si="17"/>
         <v>138789</v>
       </c>
-      <c r="N38" s="136">
+      <c r="N38" s="116">
         <f t="shared" si="17"/>
         <v>127368</v>
       </c>
-      <c r="O38" s="135">
+      <c r="O38" s="115">
         <f t="shared" si="17"/>
         <v>127371.99140192838</v>
       </c>
-      <c r="P38" s="135">
+      <c r="P38" s="115">
         <f t="shared" si="17"/>
         <v>127371.99140192838</v>
       </c>
-      <c r="Q38" s="135">
+      <c r="Q38" s="115">
         <f t="shared" si="17"/>
         <v>133468.4240270709</v>
       </c>
-      <c r="R38" s="135">
+      <c r="R38" s="115">
         <f t="shared" si="17"/>
         <v>136233.25485225854</v>
       </c>
@@ -31517,402 +31533,402 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="137">
+      <c r="H39" s="117">
         <v>10</v>
       </c>
-      <c r="I39" s="138"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="140">
+      <c r="I39" s="118"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="120">
         <f t="shared" ref="K39:R39" si="18">$H$39*K27</f>
         <v>129300</v>
       </c>
-      <c r="L39" s="140">
+      <c r="L39" s="120">
         <f t="shared" si="18"/>
         <v>144510</v>
       </c>
-      <c r="M39" s="140">
+      <c r="M39" s="120">
         <f t="shared" si="18"/>
         <v>154210</v>
       </c>
-      <c r="N39" s="140">
+      <c r="N39" s="120">
         <f t="shared" si="18"/>
         <v>141520</v>
       </c>
-      <c r="O39" s="141">
+      <c r="O39" s="121">
         <f t="shared" si="18"/>
         <v>141524.43489103153</v>
       </c>
-      <c r="P39" s="141">
+      <c r="P39" s="121">
         <f t="shared" si="18"/>
         <v>141524.43489103153</v>
       </c>
-      <c r="Q39" s="141">
+      <c r="Q39" s="121">
         <f t="shared" si="18"/>
         <v>148298.24891896767</v>
       </c>
-      <c r="R39" s="141">
+      <c r="R39" s="121">
         <f t="shared" si="18"/>
         <v>151370.28316917614</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="145">
+      <c r="A40" s="64"/>
+      <c r="B40" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125">
         <v>8</v>
       </c>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="147">
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="127">
         <f t="shared" ref="K40:R40" si="19">$H$40*K27</f>
         <v>103440</v>
       </c>
-      <c r="L40" s="147">
+      <c r="L40" s="127">
         <f t="shared" si="19"/>
         <v>115608</v>
       </c>
-      <c r="M40" s="147">
+      <c r="M40" s="127">
         <f t="shared" si="19"/>
         <v>123368</v>
       </c>
-      <c r="N40" s="147">
+      <c r="N40" s="127">
         <f t="shared" si="19"/>
         <v>113216</v>
       </c>
-      <c r="O40" s="146">
+      <c r="O40" s="126">
         <f t="shared" si="19"/>
         <v>113219.54791282522</v>
       </c>
-      <c r="P40" s="146">
+      <c r="P40" s="126">
         <f t="shared" si="19"/>
         <v>113219.54791282522</v>
       </c>
-      <c r="Q40" s="146">
+      <c r="Q40" s="126">
         <f t="shared" si="19"/>
         <v>118638.59913517412</v>
       </c>
-      <c r="R40" s="146">
+      <c r="R40" s="126">
         <f t="shared" si="19"/>
         <v>121096.22653534092</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="145">
+      <c r="A41" s="64"/>
+      <c r="B41" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="125">
         <v>7</v>
       </c>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="147">
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="127">
         <f t="shared" ref="K41:R41" si="20">$H$41*K27</f>
         <v>90510</v>
       </c>
-      <c r="L41" s="147">
+      <c r="L41" s="127">
         <f t="shared" si="20"/>
         <v>101157</v>
       </c>
-      <c r="M41" s="147">
+      <c r="M41" s="127">
         <f t="shared" si="20"/>
         <v>107947</v>
       </c>
-      <c r="N41" s="147">
+      <c r="N41" s="127">
         <f t="shared" si="20"/>
         <v>99064</v>
       </c>
-      <c r="O41" s="146">
+      <c r="O41" s="126">
         <f t="shared" si="20"/>
         <v>99067.104423722063</v>
       </c>
-      <c r="P41" s="146">
+      <c r="P41" s="126">
         <f t="shared" si="20"/>
         <v>99067.104423722063</v>
       </c>
-      <c r="Q41" s="146">
+      <c r="Q41" s="126">
         <f t="shared" si="20"/>
         <v>103808.77424327735</v>
       </c>
-      <c r="R41" s="146">
+      <c r="R41" s="126">
         <f t="shared" si="20"/>
         <v>105959.19821842331</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="145">
+      <c r="A42" s="64"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="125">
         <v>6</v>
       </c>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="147">
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="127">
         <f t="shared" ref="K42:R42" si="21">$H$42*K27</f>
         <v>77580</v>
       </c>
-      <c r="L42" s="147">
+      <c r="L42" s="127">
         <f t="shared" si="21"/>
         <v>86706</v>
       </c>
-      <c r="M42" s="147">
+      <c r="M42" s="127">
         <f t="shared" si="21"/>
         <v>92526</v>
       </c>
-      <c r="N42" s="147">
+      <c r="N42" s="127">
         <f t="shared" si="21"/>
         <v>84912</v>
       </c>
-      <c r="O42" s="146">
+      <c r="O42" s="126">
         <f t="shared" si="21"/>
         <v>84914.660934618907</v>
       </c>
-      <c r="P42" s="146">
+      <c r="P42" s="126">
         <f t="shared" si="21"/>
         <v>84914.660934618907</v>
       </c>
-      <c r="Q42" s="146">
+      <c r="Q42" s="126">
         <f t="shared" si="21"/>
         <v>88978.949351380594</v>
       </c>
-      <c r="R42" s="146">
+      <c r="R42" s="126">
         <f t="shared" si="21"/>
         <v>90822.169901505695</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="70">
+      <c r="A43" s="64"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="64">
         <v>5</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="147">
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="127">
         <f>$H$43*K27</f>
         <v>64650</v>
       </c>
-      <c r="L43" s="147">
+      <c r="L43" s="127">
         <f t="shared" ref="L43:N43" si="22">$H$43*L27</f>
         <v>72255</v>
       </c>
-      <c r="M43" s="147">
+      <c r="M43" s="127">
         <f t="shared" si="22"/>
         <v>77105</v>
       </c>
-      <c r="N43" s="147">
+      <c r="N43" s="127">
         <f t="shared" si="22"/>
         <v>70760</v>
       </c>
-      <c r="O43" s="146">
+      <c r="O43" s="126">
         <f>$H$43*O27</f>
         <v>70762.217445515766</v>
       </c>
-      <c r="P43" s="146">
+      <c r="P43" s="126">
         <f t="shared" ref="P43:R43" si="23">$H$43*P27</f>
         <v>70762.217445515766</v>
       </c>
-      <c r="Q43" s="146">
+      <c r="Q43" s="126">
         <f t="shared" si="23"/>
         <v>74149.124459483835</v>
       </c>
-      <c r="R43" s="146">
+      <c r="R43" s="126">
         <f t="shared" si="23"/>
         <v>75685.141584588069</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="70">
+      <c r="A44" s="64"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="64">
         <v>4</v>
       </c>
-      <c r="I44" s="70"/>
-      <c r="K44" s="151">
+      <c r="I44" s="64"/>
+      <c r="K44" s="131">
         <f>$H$44*K27</f>
         <v>51720</v>
       </c>
-      <c r="L44" s="151">
+      <c r="L44" s="131">
         <f t="shared" ref="L44:N44" si="24">$H$44*L27</f>
         <v>57804</v>
       </c>
-      <c r="M44" s="151">
+      <c r="M44" s="131">
         <f>$H$44*M27</f>
         <v>61684</v>
       </c>
-      <c r="N44" s="151">
+      <c r="N44" s="131">
         <f t="shared" si="24"/>
         <v>56608</v>
       </c>
-      <c r="O44" s="152">
+      <c r="O44" s="132">
         <f>$H$44*O27</f>
         <v>56609.77395641261</v>
       </c>
-      <c r="P44" s="152">
+      <c r="P44" s="132">
         <f t="shared" ref="P44" si="25">$H$44*P27</f>
         <v>56609.77395641261</v>
       </c>
-      <c r="Q44" s="152">
+      <c r="Q44" s="132">
         <f>$H$44*Q27</f>
         <v>59319.299567587062</v>
       </c>
-      <c r="R44" s="152">
+      <c r="R44" s="132">
         <f t="shared" ref="R44" si="26">$H$44*R27</f>
         <v>60548.113267670458</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="70"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="64"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="78"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="70"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="155"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="135"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
     </row>
     <row r="50" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="159" t="str">
+      <c r="A50" s="64"/>
+      <c r="B50" s="139" t="str">
         <f>"II. ĐIỂM MẠNH CỦA"&amp;" "&amp;$H$2</f>
         <v>II. ĐIỂM MẠNH CỦA DPM</v>
       </c>
-      <c r="C50" s="160"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="164"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="144"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
     </row>
     <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B56"/>
@@ -32164,20 +32180,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I35:R36"/>
-    <mergeCell ref="H36:H37"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I35:R36"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
   </mergeCells>
   <conditionalFormatting sqref="E4">
     <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="CỔ PHIẾU ÍT HẤP DẪN+THEO DÕI THÊM">
